--- a/laravel/public/data/HOSTELS.xlsx
+++ b/laravel/public/data/HOSTELS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KSGAccommodationRegistrationForm\KSGAccommodationRegistrationForm\laravel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37704FAC-05FC-4000-A9CF-02D57E456EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC304E-CAF6-49E3-9338-D38239A43671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{562D95E0-17AB-4952-AAF1-A0950FE13D8C}"/>
   </bookViews>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC9C814-7A1B-42A2-B405-D901146E0994}">
   <dimension ref="A1:B332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1873,7 @@
       <c r="A82" t="s">
         <v>131</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="A83" t="s">
         <v>131</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="A84" t="s">
         <v>131</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="A85" t="s">
         <v>131</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       <c r="A86" t="s">
         <v>131</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="A87" t="s">
         <v>131</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="A88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="A89" t="s">
         <v>131</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       <c r="A91" t="s">
         <v>131</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="A92" t="s">
         <v>131</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="A93" t="s">
         <v>131</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="A94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="A95" t="s">
         <v>131</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="A96" t="s">
         <v>131</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="A97" t="s">
         <v>131</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="A98" t="s">
         <v>131</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="A99" t="s">
         <v>131</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       <c r="A100" t="s">
         <v>131</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="A101" t="s">
         <v>131</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="A102" t="s">
         <v>131</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="A103" t="s">
         <v>131</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       <c r="A104" t="s">
         <v>131</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="A105" t="s">
         <v>131</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="A106" t="s">
         <v>131</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="A107" t="s">
         <v>131</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="A108" t="s">
         <v>131</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       <c r="A109" t="s">
         <v>131</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="A110" t="s">
         <v>131</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="A111" t="s">
         <v>131</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="A112" t="s">
         <v>131</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       <c r="A113" t="s">
         <v>131</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       <c r="A114" t="s">
         <v>131</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       <c r="A115" t="s">
         <v>131</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="A116" t="s">
         <v>131</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="A117" t="s">
         <v>131</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="A118" t="s">
         <v>131</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       <c r="A119" t="s">
         <v>131</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       <c r="A120" t="s">
         <v>131</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       <c r="A121" t="s">
         <v>131</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="A122" t="s">
         <v>131</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="A124" t="s">
         <v>131</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="A125" t="s">
         <v>131</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="A127" t="s">
         <v>131</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="A130" t="s">
         <v>131</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="A134" t="s">
         <v>131</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       <c r="A135" t="s">
         <v>131</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       <c r="A136" t="s">
         <v>131</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       <c r="A137" t="s">
         <v>131</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="A138" t="s">
         <v>131</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="A139" t="s">
         <v>131</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="A140" t="s">
         <v>131</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       <c r="A141" t="s">
         <v>131</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       <c r="A142" t="s">
         <v>131</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="A143" t="s">
         <v>131</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="A144" t="s">
         <v>131</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="A145" t="s">
         <v>131</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="A146" t="s">
         <v>132</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       <c r="A147" t="s">
         <v>132</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       <c r="A148" t="s">
         <v>132</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="A149" t="s">
         <v>132</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="A150" t="s">
         <v>132</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="A151" t="s">
         <v>132</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="A152" t="s">
         <v>132</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       <c r="A153" t="s">
         <v>132</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="A154" t="s">
         <v>132</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       <c r="A155" t="s">
         <v>132</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       <c r="A156" t="s">
         <v>132</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       <c r="A157" t="s">
         <v>132</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       <c r="A158" t="s">
         <v>132</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       <c r="A159" t="s">
         <v>132</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="A160" t="s">
         <v>132</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="A161" t="s">
         <v>132</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       <c r="A162" t="s">
         <v>132</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       <c r="A163" t="s">
         <v>132</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       <c r="A164" t="s">
         <v>132</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       <c r="A165" t="s">
         <v>132</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="A166" t="s">
         <v>132</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="A167" t="s">
         <v>132</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       <c r="A168" t="s">
         <v>132</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       <c r="A169" t="s">
         <v>132</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="A170" t="s">
         <v>132</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="A171" t="s">
         <v>132</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       <c r="A172" t="s">
         <v>132</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="A173" t="s">
         <v>132</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="A174" t="s">
         <v>132</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       <c r="A175" t="s">
         <v>132</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       <c r="A176" t="s">
         <v>132</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="A177" t="s">
         <v>132</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       <c r="A178" t="s">
         <v>132</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="A179" t="s">
         <v>132</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="A180" t="s">
         <v>132</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       <c r="A181" t="s">
         <v>132</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="A182" t="s">
         <v>132</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       <c r="A183" t="s">
         <v>132</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       <c r="A184" t="s">
         <v>132</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       <c r="A185" t="s">
         <v>132</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="A186" t="s">
         <v>132</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="A187" t="s">
         <v>132</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="A188" t="s">
         <v>132</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="A189" t="s">
         <v>132</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       <c r="A190" t="s">
         <v>132</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       <c r="A191" t="s">
         <v>132</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       <c r="A192" t="s">
         <v>132</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="A193" t="s">
         <v>132</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       <c r="A194" t="s">
         <v>132</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       <c r="A195" t="s">
         <v>132</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       <c r="A196" t="s">
         <v>132</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="A197" t="s">
         <v>132</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="A198" t="s">
         <v>132</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       <c r="A199" t="s">
         <v>132</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       <c r="A200" t="s">
         <v>132</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       <c r="A201" t="s">
         <v>132</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       <c r="A202" t="s">
         <v>132</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       <c r="A203" t="s">
         <v>132</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="A204" t="s">
         <v>132</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="A205" t="s">
         <v>132</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       <c r="A206" t="s">
         <v>132</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="A207" t="s">
         <v>132</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="A208" t="s">
         <v>132</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="A209" t="s">
         <v>132</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       <c r="A210" t="s">
         <v>197</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       <c r="A211" t="s">
         <v>197</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       <c r="A212" t="s">
         <v>197</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="A213" t="s">
         <v>197</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       <c r="A214" t="s">
         <v>197</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="A215" t="s">
         <v>197</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       <c r="A216" t="s">
         <v>197</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       <c r="A217" t="s">
         <v>197</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       <c r="A218" t="s">
         <v>197</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       <c r="A219" t="s">
         <v>197</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       <c r="A220" t="s">
         <v>197</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       <c r="A221" t="s">
         <v>197</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="A222" t="s">
         <v>197</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="A223" t="s">
         <v>197</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       <c r="A224" t="s">
         <v>197</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="A225" t="s">
         <v>197</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="A226" t="s">
         <v>197</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       <c r="A227" t="s">
         <v>197</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       <c r="A228" t="s">
         <v>197</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       <c r="A229" t="s">
         <v>197</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="A230" t="s">
         <v>197</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       <c r="A231" t="s">
         <v>197</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       <c r="A232" t="s">
         <v>197</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       <c r="A233" t="s">
         <v>197</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       <c r="A234" t="s">
         <v>197</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="A235" t="s">
         <v>197</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       <c r="A236" t="s">
         <v>197</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="A237" t="s">
         <v>197</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       <c r="A238" t="s">
         <v>197</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       <c r="A239" t="s">
         <v>197</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       <c r="A240" t="s">
         <v>197</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       <c r="A241" t="s">
         <v>197</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="A242" t="s">
         <v>197</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       <c r="A243" t="s">
         <v>197</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       <c r="A244" t="s">
         <v>197</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="A245" t="s">
         <v>197</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       <c r="A246" t="s">
         <v>197</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       <c r="A247" t="s">
         <v>197</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="A248" t="s">
         <v>197</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       <c r="A249" t="s">
         <v>197</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       <c r="A250" t="s">
         <v>197</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       <c r="A251" t="s">
         <v>197</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       <c r="A252" t="s">
         <v>197</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="A253" t="s">
         <v>197</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="A254" t="s">
         <v>197</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       <c r="A255" t="s">
         <v>197</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="A256" t="s">
         <v>197</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="A257" t="s">
         <v>197</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       <c r="A258" t="s">
         <v>197</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="A259" t="s">
         <v>197</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       <c r="A260" t="s">
         <v>197</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="A261" t="s">
         <v>197</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       <c r="A262" t="s">
         <v>197</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       <c r="A263" t="s">
         <v>197</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="A264" t="s">
         <v>197</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="A265" t="s">
         <v>197</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="A266" t="s">
         <v>197</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       <c r="A267" t="s">
         <v>197</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       <c r="A268" t="s">
         <v>197</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       <c r="A269" t="s">
         <v>197</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       <c r="A270" t="s">
         <v>197</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       <c r="A271" t="s">
         <v>197</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       <c r="A272" t="s">
         <v>197</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       <c r="A273" t="s">
         <v>197</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       <c r="A274" t="s">
         <v>198</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       <c r="A275" t="s">
         <v>198</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="A276" t="s">
         <v>198</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       <c r="A277" t="s">
         <v>198</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       <c r="A278" t="s">
         <v>198</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="A279" t="s">
         <v>198</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="A280" t="s">
         <v>198</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="A281" t="s">
         <v>198</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       <c r="A282" t="s">
         <v>198</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="A283" t="s">
         <v>198</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       <c r="A284" t="s">
         <v>198</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="A285" t="s">
         <v>198</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="A286" t="s">
         <v>198</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       <c r="A287" t="s">
         <v>198</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       <c r="A288" t="s">
         <v>198</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="A289" t="s">
         <v>198</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       <c r="A290" t="s">
         <v>198</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       <c r="A291" t="s">
         <v>198</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       <c r="A292" t="s">
         <v>198</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="A293" t="s">
         <v>198</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       <c r="A294" t="s">
         <v>198</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       <c r="A295" t="s">
         <v>198</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       <c r="A296" t="s">
         <v>198</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       <c r="A297" t="s">
         <v>198</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       <c r="A298" t="s">
         <v>198</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="A299" t="s">
         <v>198</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       <c r="A300" t="s">
         <v>198</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       <c r="A301" t="s">
         <v>198</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       <c r="A302" t="s">
         <v>198</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="A303" t="s">
         <v>198</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       <c r="A304" t="s">
         <v>198</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       <c r="A305" t="s">
         <v>198</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="A306" t="s">
         <v>198</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       <c r="A307" t="s">
         <v>198</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       <c r="A308" t="s">
         <v>198</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       <c r="A309" t="s">
         <v>198</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="A310" t="s">
         <v>198</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       <c r="A311" t="s">
         <v>198</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       <c r="A312" t="s">
         <v>198</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       <c r="A313" t="s">
         <v>198</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="A314" t="s">
         <v>198</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       <c r="A315" t="s">
         <v>198</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       <c r="A316" t="s">
         <v>198</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       <c r="A317" t="s">
         <v>198</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       <c r="A318" t="s">
         <v>198</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="A319" t="s">
         <v>198</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="A320" t="s">
         <v>198</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="A321" t="s">
         <v>198</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       <c r="A322" t="s">
         <v>198</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="A323" t="s">
         <v>198</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       <c r="A324" t="s">
         <v>198</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="A325" t="s">
         <v>198</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       <c r="A326" t="s">
         <v>198</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="A327" t="s">
         <v>198</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       <c r="A328" t="s">
         <v>198</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="A329" t="s">
         <v>198</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       <c r="A330" t="s">
         <v>198</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="A331" t="s">
         <v>198</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="A332" t="s">
         <v>198</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>257</v>
       </c>
     </row>
